--- a/scoresheets_clean/UMB-fat.xlsx
+++ b/scoresheets_clean/UMB-fat.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kschaumberg/Desktop/BAM-data-cleaning/scoresheets_clean/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/kschaumberg/BAM/BAM-data-cleaning/scoresheets_clean/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B11228A1-B703-BD47-8CFE-EA5E176237BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A5D3DC1B-06CC-8C43-AA7F-73B5BC0C2999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8620" yWindow="820" windowWidth="20520" windowHeight="11880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -233,9 +233,6 @@
     <t>strongly agree =7, moderately agree =6, slightly agree =5, neither agree nor disagree =4, slightly disagree =3, moderately disagree =2, strongly disagree =1</t>
   </si>
   <si>
-    <t>1=7, 2=6,  3=5, 4=4, 5=3, 6=2, 7=1</t>
-  </si>
-  <si>
     <t>umb_6_fat_sexy</t>
   </si>
   <si>
@@ -324,6 +321,9 @@
   </si>
   <si>
     <t>id, timepoint, umb_1_rights_privileges,umb_2_fat_person,umb_3_fat_attractive,umb_4_fat_romance,umb_5_fat_hygiene,umb_6_fat_sexy,umb_7_fat_bad,umb_8_fat_roommate,umb_9_fat_turn_off,umb_10_fat_pleasant,umb_11_fat_salary,umb_12_fat_dishonest,umb_13_fat_perspective,umb_14_fat_educational_opportunity,umb_15_fat_needs_of_others,umb_16_fat_sloppy,umb_17_fat_like,umb_18_fat_equal_housing,umb_19_fat_conversation,umb_20_fat_worship</t>
+  </si>
+  <si>
+    <t>1=7, 2=6, 3=5, 4=4, 5=3, 6=2, 7=1</t>
   </si>
 </sst>
 </file>
@@ -1166,8 +1166,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1244,7 +1244,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B25" t="s">
         <v>12</v>
@@ -2049,13 +2049,13 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" t="s">
         <v>91</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>92</v>
-      </c>
-      <c r="C27" t="s">
-        <v>93</v>
       </c>
       <c r="D27" t="s">
         <v>57</v>
@@ -2242,7 +2242,7 @@
         <v>64</v>
       </c>
       <c r="G32" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="H32" t="s">
         <v>12</v>
@@ -2262,7 +2262,7 @@
         <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C33" t="s">
         <v>26</v>
@@ -2297,7 +2297,7 @@
         <v>27</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -2312,7 +2312,7 @@
         <v>64</v>
       </c>
       <c r="G34" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="H34" t="s">
         <v>12</v>
@@ -2332,7 +2332,7 @@
         <v>29</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C35" t="s">
         <v>30</v>
@@ -2347,7 +2347,7 @@
         <v>64</v>
       </c>
       <c r="G35" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="H35" t="s">
         <v>12</v>
@@ -2367,7 +2367,7 @@
         <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C36" t="s">
         <v>32</v>
@@ -2382,7 +2382,7 @@
         <v>64</v>
       </c>
       <c r="G36" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="H36" t="s">
         <v>12</v>
@@ -2402,7 +2402,7 @@
         <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C37" t="s">
         <v>34</v>
@@ -2437,7 +2437,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C38" t="s">
         <v>36</v>
@@ -2472,7 +2472,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C39" t="s">
         <v>38</v>
@@ -2487,7 +2487,7 @@
         <v>64</v>
       </c>
       <c r="G39" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="H39" t="s">
         <v>12</v>
@@ -2507,7 +2507,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C40" t="s">
         <v>40</v>
@@ -2542,7 +2542,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C41" t="s">
         <v>42</v>
@@ -2577,7 +2577,7 @@
         <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C42" t="s">
         <v>44</v>
@@ -2592,7 +2592,7 @@
         <v>64</v>
       </c>
       <c r="G42" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="H42" t="s">
         <v>12</v>
@@ -2612,7 +2612,7 @@
         <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C43" t="s">
         <v>46</v>
@@ -2627,7 +2627,7 @@
         <v>64</v>
       </c>
       <c r="G43" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="H43" t="s">
         <v>12</v>
@@ -2647,7 +2647,7 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C44" t="s">
         <v>48</v>
@@ -2682,7 +2682,7 @@
         <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C45" t="s">
         <v>50</v>
@@ -2717,7 +2717,7 @@
         <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C46" t="s">
         <v>52</v>
@@ -2732,7 +2732,7 @@
         <v>64</v>
       </c>
       <c r="G46" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="H46" t="s">
         <v>12</v>
@@ -2752,7 +2752,7 @@
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2784,7 +2784,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B48" t="s">
         <v>12</v>
@@ -2819,16 +2819,16 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>80</v>
+      </c>
+      <c r="B49" t="s">
         <v>81</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" t="s">
         <v>82</v>
-      </c>
-      <c r="C49" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" t="s">
-        <v>83</v>
       </c>
       <c r="E49">
         <v>3</v>
@@ -2854,16 +2854,16 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>83</v>
+      </c>
+      <c r="B50" t="s">
         <v>84</v>
       </c>
-      <c r="B50" t="s">
-        <v>85</v>
-      </c>
       <c r="C50" t="s">
         <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E50">
         <v>3</v>
@@ -2889,16 +2889,16 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>85</v>
+      </c>
+      <c r="B51" t="s">
         <v>86</v>
       </c>
-      <c r="B51" t="s">
-        <v>87</v>
-      </c>
       <c r="C51" t="s">
         <v>12</v>
       </c>
       <c r="D51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E51">
         <v>3</v>
@@ -2924,16 +2924,16 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>87</v>
+      </c>
+      <c r="B52" t="s">
         <v>88</v>
       </c>
-      <c r="B52" t="s">
-        <v>89</v>
-      </c>
       <c r="C52" t="s">
         <v>12</v>
       </c>
       <c r="D52" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E52">
         <v>3</v>
@@ -2963,13 +2963,13 @@
         <v>umb_1_rights_privileges,umb_2_fat_person,umb_3_fat_attractive,umb_4_fat_romance,umb_5_fat_hygiene,umb_6_fat_sexy,umb_7_fat_bad,umb_8_fat_roommate,umb_9_fat_turn_off,umb_10_fat_pleasant,umb_11_fat_salary,umb_12_fat_dishonest,umb_13_fat_perspective,umb_14_fat_educational_opportunity,umb_15_fat_needs_of_others,umb_16_fat_sloppy,umb_17_fat_like,umb_18_fat_equal_housing,umb_19_fat_conversation,umb_20_fat_worship</v>
       </c>
       <c r="B53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C53" t="s">
         <v>12</v>
       </c>
       <c r="D53" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E53">
         <v>3</v>
